--- a/office/근무표엑셀작성중.xlsx
+++ b/office/근무표엑셀작성중.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gas00\MathTool\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A509542D-D26D-4DD8-8470-C73FFEFF0881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2337AE8C-1718-4039-A269-804ED210E51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0584B32C-BEBA-4F96-AAC3-2FCF421C1532}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="34">
   <si>
     <t>권헌일</t>
   </si>
@@ -155,6 +155,10 @@
   </si>
   <si>
     <t>목</t>
+  </si>
+  <si>
+    <t xml:space="preserve">주간 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -592,17 +596,16 @@
   <dimension ref="A2:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="6.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="11.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="3"/>
-    <col min="7" max="10" width="9" style="1"/>
+    <col min="3" max="4" width="11.25" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="8" max="10" width="9" style="1"/>
     <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
@@ -611,19 +614,19 @@
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>10</v>
@@ -656,15 +659,15 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
@@ -696,15 +699,15 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
         <v>8</v>
       </c>
@@ -736,15 +739,15 @@
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="F5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
         <v>6</v>
       </c>
@@ -778,15 +781,15 @@
         <v>13</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4" t="s">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
         <v>8</v>
       </c>
@@ -817,14 +820,14 @@
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
         <v>6</v>
       </c>
@@ -858,15 +861,15 @@
         <v>13</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
         <v>8</v>
       </c>
@@ -898,15 +901,15 @@
         <v>13</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
         <v>6</v>
       </c>
@@ -938,15 +941,15 @@
         <v>13</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
         <v>8</v>
       </c>
@@ -978,15 +981,15 @@
         <v>13</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4" t="s">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
         <v>6</v>
       </c>
@@ -1016,15 +1019,15 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6" t="s">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
         <v>8</v>
       </c>
@@ -1058,15 +1061,15 @@
         <v>13</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
         <v>6</v>
       </c>
@@ -1097,14 +1100,14 @@
       <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
         <v>8</v>
       </c>
@@ -1138,15 +1141,15 @@
         <v>13</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
         <v>6</v>
       </c>
@@ -1178,15 +1181,15 @@
         <v>13</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
         <v>8</v>
       </c>
@@ -1218,15 +1221,15 @@
         <v>13</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="4" t="s">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
         <v>6</v>
       </c>
@@ -1258,15 +1261,15 @@
         <v>13</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="4" t="s">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5"/>
       <c r="H18" s="5" t="s">
         <v>8</v>
       </c>
@@ -1298,15 +1301,15 @@
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6"/>
       <c r="H19" s="6" t="s">
         <v>6</v>
       </c>
@@ -1340,15 +1343,15 @@
         <v>13</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="5"/>
       <c r="H20" s="5" t="s">
         <v>8</v>
       </c>
@@ -1379,14 +1382,14 @@
       <c r="C21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="5"/>
       <c r="H21" s="5" t="s">
         <v>6</v>
       </c>
@@ -1420,15 +1423,15 @@
         <v>13</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="5"/>
       <c r="H22" s="5" t="s">
         <v>8</v>
       </c>
@@ -1460,15 +1463,15 @@
         <v>13</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
         <v>6</v>
       </c>
@@ -1500,15 +1503,15 @@
         <v>13</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="4" t="s">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
         <v>8</v>
       </c>
@@ -1540,15 +1543,15 @@
         <v>13</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="4" t="s">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
         <v>6</v>
       </c>
@@ -1578,15 +1581,15 @@
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6" t="s">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
         <v>8</v>
       </c>
@@ -1620,15 +1623,15 @@
         <v>13</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
         <v>6</v>
       </c>
@@ -1659,14 +1662,14 @@
       <c r="C28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
         <v>8</v>
       </c>
@@ -1700,15 +1703,15 @@
         <v>13</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="4" t="s">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
         <v>6</v>
       </c>
@@ -1739,14 +1742,14 @@
       <c r="C30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
         <v>8</v>
       </c>
@@ -1780,15 +1783,15 @@
         <v>13</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="4" t="s">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
         <v>6</v>
       </c>
@@ -1820,15 +1823,15 @@
         <v>13</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
         <v>8</v>
       </c>
@@ -1858,15 +1861,15 @@
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6" t="s">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="6"/>
       <c r="H33" s="6" t="s">
         <v>6</v>
       </c>

--- a/office/근무표엑셀작성중.xlsx
+++ b/office/근무표엑셀작성중.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gas00\MathTool\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2337AE8C-1718-4039-A269-804ED210E51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49250D00-4148-44B7-82EF-37351D89B255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0584B32C-BEBA-4F96-AAC3-2FCF421C1532}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0584B32C-BEBA-4F96-AAC3-2FCF421C1532}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="3월예정" sheetId="1" r:id="rId1"/>
+    <sheet name="3월예정 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'3월예정'!$A$1:$K$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'3월예정 (2)'!$D$1:$N$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="34">
   <si>
     <t>권헌일</t>
   </si>
@@ -595,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AB46A4-E90D-4757-A913-FF593C841492}">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1900,4 +1902,1316 @@
     <brk id="11" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CE4D75-4CC4-4A23-8799-7DA2ADD9B983}">
+  <dimension ref="D2:R33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="33.375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="6.25" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.25" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="9" style="3"/>
+    <col min="11" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="11.25" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D5" s="6">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="P6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D7" s="4">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D8" s="4">
+        <v>6</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="P8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D9" s="4">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="P9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D10" s="4">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="P10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D11" s="4">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="P11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D12" s="6">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D13" s="4">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="P13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D14" s="4">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D15" s="4">
+        <v>13</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="P15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D16" s="4">
+        <v>14</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="P16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D17" s="4">
+        <v>15</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="P17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D18" s="4">
+        <v>16</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D19" s="6">
+        <v>17</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D20" s="5">
+        <v>18</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="5"/>
+      <c r="P20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D21" s="4">
+        <v>19</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D22" s="4">
+        <v>20</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="P22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D23" s="4">
+        <v>21</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="P23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D24" s="4">
+        <v>22</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="P24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D25" s="4">
+        <v>23</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="P25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D26" s="6">
+        <v>24</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D27" s="4">
+        <v>25</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="4"/>
+      <c r="P27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D28" s="4">
+        <v>26</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D29" s="4">
+        <v>27</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="4"/>
+      <c r="P29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D30" s="4">
+        <v>28</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D31" s="4">
+        <v>29</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N31" s="4"/>
+      <c r="P31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D32" s="4">
+        <v>30</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N32" s="4"/>
+      <c r="P32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D33" s="6">
+        <v>31</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="14" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
 </file>